--- a/Abbaspour/Codes für die Thesis/Ergänzendes Laborbuch.xlsx
+++ b/Abbaspour/Codes für die Thesis/Ergänzendes Laborbuch.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\49157\Dropbox\Thesis_ELnaz\11 Finale Codes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F65F7450-0C13-4148-8996-9D13C4D035EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5607196-F839-4A30-85FB-56D93788BAA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0DC943DD-3D35-4159-B445-048AE8071ED3}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Stoffeigenschaten_" sheetId="1" r:id="rId1"/>
     <sheet name="Stoffeigenschaften_JSON" sheetId="2" r:id="rId2"/>
     <sheet name="Stoffeigenschaften_Zusatz" sheetId="3" r:id="rId3"/>
-    <sheet name="Reaktorparameter" sheetId="4" r:id="rId4"/>
+    <sheet name="Reaktor" sheetId="4" r:id="rId4"/>
     <sheet name="Dropdown" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -40,10 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="105">
-  <si>
-    <t>Ergänzendes Laborbuch</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="113">
   <si>
     <t>EnzymeML ID</t>
   </si>
@@ -258,9 +255,6 @@
     <t>C18H18N4O6S4</t>
   </si>
   <si>
-    <t>Stoffnamen</t>
-  </si>
-  <si>
     <t>hasStoichiometriCoefficient</t>
   </si>
   <si>
@@ -318,9 +312,6 @@
     <t>hasPressureUnit</t>
   </si>
   <si>
-    <t>Wert/Einheit</t>
-  </si>
-  <si>
     <t>hasLength</t>
   </si>
   <si>
@@ -339,9 +330,6 @@
     <t>hasResidanceTimeUnit</t>
   </si>
   <si>
-    <t>Stoffeigenschaften</t>
-  </si>
-  <si>
     <t>hasDeltaP</t>
   </si>
   <si>
@@ -355,6 +343,42 @@
   </si>
   <si>
     <t>1.10.3.2</t>
+  </si>
+  <si>
+    <t>PFR</t>
+  </si>
+  <si>
+    <t>CSTR</t>
+  </si>
+  <si>
+    <t>Gibbs</t>
+  </si>
+  <si>
+    <t>Conversion</t>
+  </si>
+  <si>
+    <t>Reactortype</t>
+  </si>
+  <si>
+    <t>hasVolumeValue</t>
+  </si>
+  <si>
+    <t>hasVolumeUnit</t>
+  </si>
+  <si>
+    <t>m³</t>
+  </si>
+  <si>
+    <t>Property</t>
+  </si>
+  <si>
+    <t>ELN</t>
+  </si>
+  <si>
+    <t>Names</t>
+  </si>
+  <si>
+    <t>Value/Unit</t>
   </si>
 </sst>
 </file>
@@ -433,7 +457,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -485,6 +509,10 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -802,25 +830,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD175E90-F87B-46BB-AD28-E51C0E56DD62}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>0</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="B2" s="17"/>
       <c r="C2" s="17"/>
@@ -830,47 +858,47 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B5" s="3">
         <v>-7.1995699999999999E-5</v>
@@ -890,7 +918,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B6" s="2">
         <v>0</v>
@@ -910,7 +938,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B7" s="2">
         <v>0</v>
@@ -930,59 +958,59 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="F8" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B10" s="3">
-        <v>9.6666666666666664E-10</v>
+        <v>9.6666666666666705E-10</v>
       </c>
       <c r="C10" s="3">
-        <v>8.0833333333333323E-8</v>
+        <v>8.0833333333333296E-8</v>
       </c>
       <c r="D10" s="2">
         <v>0</v>
       </c>
       <c r="E10" s="3">
-        <v>1.6550000000000002E-7</v>
+        <v>1.6549999999999999E-7</v>
       </c>
       <c r="F10" s="2">
         <v>0</v>
@@ -990,22 +1018,22 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1036,7 +1064,7 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1050,13 +1078,13 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="G1" s="8"/>
     </row>
     <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -1066,42 +1094,42 @@
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="14"/>
       <c r="B3" s="19" t="s">
-        <v>72</v>
+        <v>111</v>
       </c>
       <c r="C3" s="19"/>
       <c r="D3" s="19"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="5" t="s">
         <v>3</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" s="5">
         <v>375.15</v>
@@ -1115,21 +1143,21 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" s="5">
         <v>56000</v>
@@ -1143,21 +1171,21 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" s="5">
         <v>-6497</v>
@@ -1171,49 +1199,49 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C13" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>70</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B14" s="5">
         <v>647.14</v>
@@ -1227,7 +1255,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B15" s="5">
         <v>56000</v>
@@ -1241,7 +1269,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B16" s="7">
         <v>22064000</v>
@@ -1255,7 +1283,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B17" s="5">
         <v>5.595E-2</v>
@@ -1269,7 +1297,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B18" s="5">
         <v>0.22900000000000001</v>
@@ -1283,7 +1311,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B19" s="5">
         <v>0.34399999999999997</v>
@@ -1297,7 +1325,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B20" s="5">
         <v>-13422.7</v>
@@ -1311,7 +1339,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B21" s="5">
         <v>-12688.7</v>
@@ -1325,7 +1353,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B22" s="5">
         <v>0.32800000000000001</v>
@@ -1339,7 +1367,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B23" s="5">
         <v>1.14199E-2</v>
@@ -1353,7 +1381,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B24" s="5">
         <v>18.067399999999999</v>
@@ -1367,7 +1395,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B25" s="5">
         <v>0.23380000000000001</v>
@@ -1381,114 +1409,114 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1504,9 +1532,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AF480D6-9205-47F6-9ED7-D8854ECD9B64}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1516,7 +1542,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
-        <v>0</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -1525,191 +1551,191 @@
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="14"/>
       <c r="B3" s="19" t="s">
-        <v>72</v>
+        <v>111</v>
       </c>
       <c r="C3" s="19"/>
       <c r="D3" s="19"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="5" t="s">
         <v>3</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1722,10 +1748,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1001A894-4063-4495-B6BC-60D2E426D6B4}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1736,20 +1762,20 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
-        <v>0</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B3" s="2">
         <v>1.01325</v>
@@ -1758,16 +1784,16 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G4" s="18"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B5" s="2">
         <v>120</v>
@@ -1776,15 +1802,15 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B7" s="2">
         <v>64</v>
@@ -1792,31 +1818,31 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B9" s="3">
-        <v>1.92E-3</v>
+        <v>1.9200229517685899E-3</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B11" s="2">
         <v>1.6</v>
@@ -1824,24 +1850,60 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="B14" s="1">
+        <v>3.8604352000000001E-9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E18FDF52-0E15-4CE2-8D17-CA78E00540C8}">
+          <x14:formula1>
+            <xm:f>Dropdown!$C$1:$C$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>B13</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5280EC7-65F1-4C9E-AAB8-4C1B13CCA24E}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C1" sqref="C1:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1849,38 +1911,50 @@
     <col min="2" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" t="s">
         <v>102</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="C3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
         <v>80</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/Abbaspour/Codes für die Thesis/Ergänzendes Laborbuch.xlsx
+++ b/Abbaspour/Codes für die Thesis/Ergänzendes Laborbuch.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\49157\Dropbox\Thesis_ELnaz\11 Finale Codes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5607196-F839-4A30-85FB-56D93788BAA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AB988B8-AE5B-46B6-82E0-7CC4E37C6212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0DC943DD-3D35-4159-B445-048AE8071ED3}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="12984" windowHeight="12336" firstSheet="1" activeTab="1" xr2:uid="{0DC943DD-3D35-4159-B445-048AE8071ED3}"/>
   </bookViews>
   <sheets>
     <sheet name="Stoffeigenschaten_" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="119">
   <si>
     <t>EnzymeML ID</t>
   </si>
@@ -306,9 +306,6 @@
     <t>mol/s</t>
   </si>
   <si>
-    <t>hasResidanceTime</t>
-  </si>
-  <si>
     <t>hasPressureUnit</t>
   </si>
   <si>
@@ -327,9 +324,6 @@
     <t>hasPressureValue</t>
   </si>
   <si>
-    <t>hasResidanceTimeUnit</t>
-  </si>
-  <si>
     <t>hasDeltaP</t>
   </si>
   <si>
@@ -345,21 +339,6 @@
     <t>1.10.3.2</t>
   </si>
   <si>
-    <t>PFR</t>
-  </si>
-  <si>
-    <t>CSTR</t>
-  </si>
-  <si>
-    <t>Gibbs</t>
-  </si>
-  <si>
-    <t>Conversion</t>
-  </si>
-  <si>
-    <t>Reactortype</t>
-  </si>
-  <si>
     <t>hasVolumeValue</t>
   </si>
   <si>
@@ -379,6 +358,45 @@
   </si>
   <si>
     <t>Value/Unit</t>
+  </si>
+  <si>
+    <t>hasResidenceTimeUnit</t>
+  </si>
+  <si>
+    <t>hasResidenceTime</t>
+  </si>
+  <si>
+    <t>hasTypeOf_ThermodynamicProcess</t>
+  </si>
+  <si>
+    <t>(Adiabatic)</t>
+  </si>
+  <si>
+    <t>(Isothermic)</t>
+  </si>
+  <si>
+    <t>RCT_PFR</t>
+  </si>
+  <si>
+    <t>RCT_Gibbs</t>
+  </si>
+  <si>
+    <t>RCT_CSTR</t>
+  </si>
+  <si>
+    <t>RCT_Conversion</t>
+  </si>
+  <si>
+    <t>hasReactortype</t>
+  </si>
+  <si>
+    <t>hasVolumetricFlow</t>
+  </si>
+  <si>
+    <t>hasVolumetricFlowUnit</t>
+  </si>
+  <si>
+    <t>m3/s</t>
   </si>
 </sst>
 </file>
@@ -457,7 +475,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -507,12 +525,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -828,10 +845,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD175E90-F87B-46BB-AD28-E51C0E56DD62}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -843,12 +860,12 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B2" s="17"/>
       <c r="C2" s="17"/>
@@ -900,8 +917,8 @@
       <c r="A5" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B5" s="3">
-        <v>-7.1995699999999999E-5</v>
+      <c r="B5" s="2">
+        <v>0</v>
       </c>
       <c r="C5" s="2">
         <v>-4</v>
@@ -1001,16 +1018,16 @@
         <v>85</v>
       </c>
       <c r="B10" s="3">
-        <v>9.6666666666666705E-10</v>
+        <v>9.6666666666666664E-10</v>
       </c>
       <c r="C10" s="3">
-        <v>8.0833333333333296E-8</v>
+        <v>8.0833333333333323E-8</v>
       </c>
       <c r="D10" s="2">
         <v>0</v>
       </c>
       <c r="E10" s="3">
-        <v>1.6549999999999999E-7</v>
+        <v>1.6550000000000002E-7</v>
       </c>
       <c r="F10" s="2">
         <v>0</v>
@@ -1036,8 +1053,49 @@
         <v>87</v>
       </c>
     </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2">
+        <v>8.3333333333333338E-8</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3">
+        <v>5.0000000000000004E-8</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
@@ -1063,8 +1121,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B300579-BEC2-49D6-9B51-7178606EBCCA}">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1078,7 +1136,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="G1" s="8"/>
     </row>
@@ -1093,15 +1151,15 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="14"/>
-      <c r="B3" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
+      <c r="B3" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>1</v>
@@ -1261,10 +1319,10 @@
         <v>56000</v>
       </c>
       <c r="C15" s="5">
+        <v>514.61900000000003</v>
+      </c>
+      <c r="D15" s="5">
         <v>513.61900000000003</v>
-      </c>
-      <c r="D15" s="5">
-        <v>514.61900000000003</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -1328,13 +1386,13 @@
         <v>34</v>
       </c>
       <c r="B20" s="5">
-        <v>-13422.7</v>
+        <v>0</v>
       </c>
       <c r="C20" s="5">
-        <v>-13422.7</v>
+        <v>0</v>
       </c>
       <c r="D20" s="5">
-        <v>-13422.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -1342,13 +1400,13 @@
         <v>35</v>
       </c>
       <c r="B21" s="5">
-        <v>-12688.7</v>
+        <v>0</v>
       </c>
       <c r="C21" s="5">
-        <v>-12688.7</v>
+        <v>0</v>
       </c>
       <c r="D21" s="5">
-        <v>-12688.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -1356,13 +1414,13 @@
         <v>36</v>
       </c>
       <c r="B22" s="5">
-        <v>0.32800000000000001</v>
+        <v>0</v>
       </c>
       <c r="C22" s="5">
-        <v>0.32800000000000001</v>
+        <v>0</v>
       </c>
       <c r="D22" s="5">
-        <v>0.32800000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -1384,13 +1442,13 @@
         <v>38</v>
       </c>
       <c r="B24" s="5">
-        <v>18.067399999999999</v>
+        <v>0</v>
       </c>
       <c r="C24" s="5">
-        <v>18.067399999999999</v>
+        <v>0</v>
       </c>
       <c r="D24" s="5">
-        <v>18.067399999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -1398,13 +1456,13 @@
         <v>46</v>
       </c>
       <c r="B25" s="5">
-        <v>0.23380000000000001</v>
+        <v>0</v>
       </c>
       <c r="C25" s="5">
-        <v>0.23380000000000001</v>
+        <v>0</v>
       </c>
       <c r="D25" s="5">
-        <v>0.23380000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -1542,7 +1600,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -1550,15 +1608,15 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="14"/>
-      <c r="B3" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
+      <c r="B3" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>1</v>
@@ -1589,7 +1647,7 @@
         <v>21</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>67</v>
@@ -1603,7 +1661,7 @@
         <v>24</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>67</v>
@@ -1748,136 +1806,144 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1001A894-4063-4495-B6BC-60D2E426D6B4}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B3" s="2">
+        <v>93</v>
+      </c>
+      <c r="B3" s="5">
         <v>1.01325</v>
       </c>
       <c r="G3" s="18"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B4" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>81</v>
       </c>
       <c r="G4" s="18"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B5" s="2">
+        <v>94</v>
+      </c>
+      <c r="B5" s="5">
         <v>120</v>
       </c>
       <c r="G5" s="18"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B6" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B7" s="2">
+        <v>107</v>
+      </c>
+      <c r="B7" s="5">
         <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B8" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B9" s="3">
-        <v>1.9200229517685899E-3</v>
+        <v>89</v>
+      </c>
+      <c r="B9" s="7">
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B10" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B11" s="2">
+        <v>91</v>
+      </c>
+      <c r="B11" s="5">
         <v>1.6</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B12" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="B13" s="2" t="s">
+      <c r="A13" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" s="7">
+        <v>7.9999999999999996E-6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="B14" s="1">
-        <v>3.8604352000000001E-9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="B15" s="21" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
         <v>108</v>
+      </c>
+      <c r="B16" s="5">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1885,12 +1951,18 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E18FDF52-0E15-4CE2-8D17-CA78E00540C8}">
           <x14:formula1>
             <xm:f>Dropdown!$C$1:$C$4</xm:f>
           </x14:formula1>
           <xm:sqref>B13</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0DAB961F-BB3A-4153-BABA-ED12414A6D9B}">
+          <x14:formula1>
+            <xm:f>Dropdown!$D$1:$D$2</xm:f>
+          </x14:formula1>
+          <xm:sqref>B16</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1900,29 +1972,36 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5280EC7-65F1-4C9E-AAB8-4C1B13CCA24E}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B1" t="s">
         <v>76</v>
       </c>
       <c r="C1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+      <c r="D1" s="19">
+        <v>0</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -1930,10 +2009,16 @@
         <v>77</v>
       </c>
       <c r="C2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+      <c r="D2" s="19">
+        <v>1</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -1941,18 +2026,18 @@
         <v>78</v>
       </c>
       <c r="C3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>79</v>
       </c>
       <c r="C4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>80</v>
       </c>

--- a/Abbaspour/Codes für die Thesis/Ergänzendes Laborbuch.xlsx
+++ b/Abbaspour/Codes für die Thesis/Ergänzendes Laborbuch.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\49157\Dropbox\Thesis_ELnaz\11 Finale Codes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AB988B8-AE5B-46B6-82E0-7CC4E37C6212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27971CDB-53D2-47D2-B34A-F79B81B3A61D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="12984" windowHeight="12336" firstSheet="1" activeTab="1" xr2:uid="{0DC943DD-3D35-4159-B445-048AE8071ED3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{0DC943DD-3D35-4159-B445-048AE8071ED3}"/>
   </bookViews>
   <sheets>
     <sheet name="Stoffeigenschaten_" sheetId="1" r:id="rId1"/>
@@ -42,9 +42,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="119">
   <si>
-    <t>EnzymeML ID</t>
-  </si>
-  <si>
     <t>Laccase</t>
   </si>
   <si>
@@ -75,9 +72,6 @@
     <t>p0</t>
   </si>
   <si>
-    <t>Reaktant</t>
-  </si>
-  <si>
     <t>hasRelativeDensities</t>
   </si>
   <si>
@@ -294,9 +288,6 @@
     <t>m</t>
   </si>
   <si>
-    <t>mm</t>
-  </si>
-  <si>
     <t>hasCompoundMolarFlow</t>
   </si>
   <si>
@@ -309,9 +300,6 @@
     <t>hasPressureUnit</t>
   </si>
   <si>
-    <t>hasLength</t>
-  </si>
-  <si>
     <t>hasLengthUnit</t>
   </si>
   <si>
@@ -366,9 +354,6 @@
     <t>hasResidenceTime</t>
   </si>
   <si>
-    <t>hasTypeOf_ThermodynamicProcess</t>
-  </si>
-  <si>
     <t>(Adiabatic)</t>
   </si>
   <si>
@@ -397,12 +382,30 @@
   </si>
   <si>
     <t>m3/s</t>
+  </si>
+  <si>
+    <t>hasRole</t>
+  </si>
+  <si>
+    <t>hasEnzymeML_ID</t>
+  </si>
+  <si>
+    <t>hasLengthValue</t>
+  </si>
+  <si>
+    <t>hasTypeOf_OperationMode</t>
+  </si>
+  <si>
+    <t>hasCompoundName</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -475,7 +478,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -526,6 +529,9 @@
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -848,7 +854,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -860,12 +866,12 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B2" s="17"/>
       <c r="C2" s="17"/>
@@ -875,47 +881,47 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>118</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B5" s="2">
         <v>0</v>
@@ -935,7 +941,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B6" s="2">
         <v>0</v>
@@ -955,7 +961,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B7" s="2">
         <v>0</v>
@@ -975,99 +981,99 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="F8" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="F9" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B10" s="3">
-        <v>9.6666666666666664E-10</v>
+        <v>9.6666666666666705E-10</v>
       </c>
       <c r="C10" s="3">
-        <v>8.0833333333333323E-8</v>
+        <v>8.0833333333333296E-8</v>
       </c>
       <c r="D10" s="2">
         <v>0</v>
       </c>
       <c r="E10" s="3">
-        <v>1.6550000000000002E-7</v>
-      </c>
-      <c r="F10" s="2">
-        <v>0</v>
+        <v>1.6549999999999999E-7</v>
+      </c>
+      <c r="F10" s="20">
+        <v>4.6243132629629627E-3</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B12" s="2">
         <v>0</v>
       </c>
-      <c r="C12" s="2">
-        <v>8.3333333333333338E-8</v>
+      <c r="C12" s="3">
+        <v>8.3333333333333303E-5</v>
       </c>
       <c r="D12" s="2">
         <v>0</v>
       </c>
       <c r="E12" s="3">
-        <v>5.0000000000000004E-8</v>
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="F12" s="2">
         <v>0</v>
@@ -1075,22 +1081,22 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -1121,8 +1127,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B300579-BEC2-49D6-9B51-7178606EBCCA}">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1136,13 +1142,13 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="G1" s="8"/>
     </row>
     <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -1151,43 +1157,43 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="14"/>
-      <c r="B3" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
+      <c r="B3" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="5" t="s">
         <v>2</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B6" s="5">
         <v>375.15</v>
@@ -1201,21 +1207,21 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B8" s="5">
         <v>56000</v>
@@ -1229,21 +1235,21 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B10" s="5">
         <v>-6497</v>
@@ -1257,49 +1263,49 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="201.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="13" t="s">
-        <v>25</v>
-      </c>
       <c r="B12" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B14" s="5">
         <v>647.14</v>
@@ -1313,7 +1319,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B15" s="5">
         <v>56000</v>
@@ -1327,7 +1333,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B16" s="7">
         <v>22064000</v>
@@ -1341,7 +1347,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B17" s="5">
         <v>5.595E-2</v>
@@ -1355,7 +1361,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B18" s="5">
         <v>0.22900000000000001</v>
@@ -1369,7 +1375,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B19" s="5">
         <v>0.34399999999999997</v>
@@ -1383,7 +1389,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B20" s="5">
         <v>0</v>
@@ -1397,7 +1403,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B21" s="5">
         <v>0</v>
@@ -1411,7 +1417,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B22" s="5">
         <v>0</v>
@@ -1425,7 +1431,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B23" s="5">
         <v>1.14199E-2</v>
@@ -1439,7 +1445,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B24" s="5">
         <v>0</v>
@@ -1453,7 +1459,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B25" s="5">
         <v>0</v>
@@ -1467,114 +1473,114 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1600,7 +1606,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -1608,192 +1614,192 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="14"/>
-      <c r="B3" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
+      <c r="B3" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="5" t="s">
         <v>2</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1808,8 +1814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1001A894-4063-4495-B6BC-60D2E426D6B4}">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1820,20 +1826,20 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B3" s="5">
         <v>1.01325</v>
@@ -1842,16 +1848,16 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G4" s="18"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B5" s="5">
         <v>120</v>
@@ -1860,31 +1866,31 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B7" s="5">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>89</v>
+        <v>116</v>
       </c>
       <c r="B9" s="7">
         <v>4</v>
@@ -1892,39 +1898,39 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B11" s="5">
-        <v>1.6</v>
+        <v>1.6000000000000001E-3</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B14" s="7">
         <v>7.9999999999999996E-6</v>
@@ -1932,15 +1938,15 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="B16" s="5">
         <v>1</v>
@@ -1975,7 +1981,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1986,60 +1992,60 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D1" s="19">
         <v>0</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D2" s="19">
         <v>1</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C3" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C4" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/Abbaspour/Codes für die Thesis/Ergänzendes Laborbuch.xlsx
+++ b/Abbaspour/Codes für die Thesis/Ergänzendes Laborbuch.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\49157\Dropbox\Thesis_ELnaz\11 Finale Codes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27971CDB-53D2-47D2-B34A-F79B81B3A61D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B14F2F4D-DF3D-4CD5-BCE5-9054C89652D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{0DC943DD-3D35-4159-B445-048AE8071ED3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0DC943DD-3D35-4159-B445-048AE8071ED3}"/>
   </bookViews>
   <sheets>
     <sheet name="Stoffeigenschaten_" sheetId="1" r:id="rId1"/>
@@ -853,8 +853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD175E90-F87B-46BB-AD28-E51C0E56DD62}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1067,13 +1067,13 @@
         <v>0</v>
       </c>
       <c r="C12" s="3">
-        <v>8.3333333333333303E-5</v>
+        <v>8.3333333333333299E-8</v>
       </c>
       <c r="D12" s="2">
         <v>0</v>
       </c>
       <c r="E12" s="3">
-        <v>5.0000000000000002E-5</v>
+        <v>4.9999999999999998E-8</v>
       </c>
       <c r="F12" s="2">
         <v>0</v>
@@ -1814,7 +1814,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1001A894-4063-4495-B6BC-60D2E426D6B4}">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>

--- a/Abbaspour/Codes für die Thesis/Ergänzendes Laborbuch.xlsx
+++ b/Abbaspour/Codes für die Thesis/Ergänzendes Laborbuch.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\49157\Dropbox\Thesis_ELnaz\11 Finale Codes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B14F2F4D-DF3D-4CD5-BCE5-9054C89652D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8775CAF-24B8-40F3-923B-93D1420DC84F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0DC943DD-3D35-4159-B445-048AE8071ED3}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0DC943DD-3D35-4159-B445-048AE8071ED3}"/>
   </bookViews>
   <sheets>
     <sheet name="Stoffeigenschaten_" sheetId="1" r:id="rId1"/>
@@ -478,7 +478,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -536,6 +536,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -854,7 +857,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1063,11 +1066,11 @@
       <c r="A12" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B12" s="2">
-        <v>0</v>
-      </c>
-      <c r="C12" s="3">
+      <c r="B12" s="3">
         <v>8.3333333333333299E-8</v>
+      </c>
+      <c r="C12" s="22">
+        <v>0</v>
       </c>
       <c r="D12" s="2">
         <v>0</v>
